--- a/Puntos Colombia/Estimacion.xlsx
+++ b/Puntos Colombia/Estimacion.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-88464\Desktop\OCA\Puntos Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E9AE5-C574-41B9-9143-27CE8C3D1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC48F29-671B-4CD4-90B4-E6A4DABBB8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E3BB7112-B07F-450B-9FDB-E067F7438D07}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{E3BB7112-B07F-450B-9FDB-E067F7438D07}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabla de Horas" sheetId="2" r:id="rId2"/>
+    <sheet name="Bolsa de Horas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>Requerimiento</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Detalle</t>
   </si>
   <si>
-    <t>Se trabajaria con workflow y una plantilla personalizada (LOS USUARIOS DE DESTINO DEBEN PERTENECER AL EQUIPO DE LA OPORTUNIDAD, DEBE SER UN USUARIO CON LICENSIA EN SALES)</t>
-  </si>
-  <si>
     <t>Mejorar la visualización de las fichas y el checklist y diferenciación de checklist de acuerdo con el tipo de conexión.  (Se anexa archivo de checklist por cada tipo de conexión). Si es posible, desde el momento en que se genera la ficha o antes, cuando se selecciona el tipo de aliado y tipo de conexión, (ejemplo: Marketplace), la ficha genere automáticamente el checklist específico para cada tipo de conexión.</t>
   </si>
   <si>
@@ -86,9 +84,6 @@
     <t>se generera una regla para verificar que todos los campos correspondientes al proceso sean diligenciados, de esta manera se puede poblar un campo de fecha de finalizacion de proceso de forma automatiza y en paralelo generar una regla en workflow que envie una notificacion al PMO responsable (ESTE USUARIO DEBE PERTENECER AL EQUIPO DE LA OPORTUNIDAD)</t>
   </si>
   <si>
-    <t>No se conocen los campos involucrados</t>
-  </si>
-  <si>
     <t>Cambios a Realizar</t>
   </si>
   <si>
@@ -164,12 +159,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Estimado</t>
-  </si>
-  <si>
-    <t>Bolsa de reporteria 150H para creacion de reporte y 100 horas para mejoras</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enlazar los responsable de Oportunidades, cuentas y fichas.  Tener una visual 360. </t>
   </si>
   <si>
@@ -224,20 +213,192 @@
     <t>Manejo de grupos económicos:  Entrenamiento para entender claramente la funcionalidad en la herramienta y si existen mejoras, mapearlas dentro de estas solicitudes.</t>
   </si>
   <si>
-    <t xml:space="preserve">Como mejorar proceso de leads (notificaciones cuando se asigna un lead, asignación de leads, conexión de página web con CRM para el registro de leads y asignación a comerciales) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Integración página web (Conversión por formulario se cree en el CRM) </t>
   </si>
   <si>
     <t>Tener la posibilidad de hacer trazabilidad a las fechas de cambio de las etapas de venta.</t>
+  </si>
+  <si>
+    <t>Pueden presentarse problemas de acceso a datos debido a roles</t>
+  </si>
+  <si>
+    <t>Se debe identificar mediante reporte para realizar correccion de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no se conoce la cantidad de datos a intervenir </t>
+  </si>
+  <si>
+    <t>No se conocen los campos involucrados, aclarar a que se hacer referencia con finalizacion de proceso, si es de totalidad de la ficha o de las secciones que la componen</t>
+  </si>
+  <si>
+    <t>se debe generar una relacion entre oportunidad y ficha para generar el autollenado de datos al momento de crear una ficha</t>
+  </si>
+  <si>
+    <t>Se deben conocer los campos a usar</t>
+  </si>
+  <si>
+    <t>Se creara un boton de versionamiento en la pagina de la ficha, creando una nueva ficha modificando su nombre (Ficha A V1)</t>
+  </si>
+  <si>
+    <t>se deben realizan pruebas sobre creacion de registros en objeto personalizado</t>
+  </si>
+  <si>
+    <t>Se generara un workflow para controlar el llenado de los campos requeridos y lanzar la notificacion</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>Se deben tener en cuenta la cantidad y tipo de campos a verificar ya que pueden cambiar dependiendo del tipo de ficha</t>
+  </si>
+  <si>
+    <t>Se debe generar un campo de relacion para referencial la oportunidad desde la ficha</t>
+  </si>
+  <si>
+    <t>Se propone la relacion de objetos sin modificar la configuracion actual, dependemos 100% de la configuracion actual del sistema.</t>
+  </si>
+  <si>
+    <t>Se agregara un campo adicional para controlar esta funcionabilidad</t>
+  </si>
+  <si>
+    <t>Este campo se creara sin formulacion y sera diligenciado por el usuario</t>
+  </si>
+  <si>
+    <t>Se genera workflow con notificacion hacia miembros de la oportunidad</t>
+  </si>
+  <si>
+    <t>Esta notificacion solo se podra enviar a miembros de la oportunidad o de la ficha</t>
+  </si>
+  <si>
+    <t>Generacion de vistas condicionadas por Rol</t>
+  </si>
+  <si>
+    <t>Esta modificacion aplicara solo al objeto ficha</t>
+  </si>
+  <si>
+    <t>Se trabajaria con workflow y una plantilla personalizada (LOS USUARIOS DE DESTINO DEBEN PERTENECER AL EQUIPO DE LA OPORTUNIDAD, DEBE SER UN USUARIO CON LICENCIA EN SALES)</t>
+  </si>
+  <si>
+    <t>Los usuarios a los cuales se les enviara correo, deben pertenecer al equipo de la oportunidad [esto consumira una lilcencia de SALES] , para la plantilla se ofrecen los campos estandar permitidos por el objeto.</t>
+  </si>
+  <si>
+    <t>restriccion de visualizacion por roles</t>
+  </si>
+  <si>
+    <t>Requerimiento 16</t>
+  </si>
+  <si>
+    <t>Requerimiento 17</t>
+  </si>
+  <si>
+    <t>Requerimiento 18</t>
+  </si>
+  <si>
+    <t>Requerimiento 19</t>
+  </si>
+  <si>
+    <t>Se registrara ultimo usuario que edita, confirmar si se requiere llevar la informacion a un reporte</t>
+  </si>
+  <si>
+    <t>Requerimiento 20</t>
+  </si>
+  <si>
+    <t>Requerimiento 21</t>
+  </si>
+  <si>
+    <t>Requerimiento 22</t>
+  </si>
+  <si>
+    <t>Requerimiento 23</t>
+  </si>
+  <si>
+    <t>No existe configuracion se enfocara el tiempo en realizar capacitacion</t>
+  </si>
+  <si>
+    <t>Requerimiento 24</t>
+  </si>
+  <si>
+    <t>Requerimiento 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como mejorar proceso de leads (notificaciones cuando se asigna un lead, asignación de leads) </t>
+  </si>
+  <si>
+    <t>Se requiere conocer las reglas de asignacion de leads, y condiciones adicionales para la asignacion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se entragara la documentacion del servicio correspondiente para crear  leads, la pagina web debera consumir este servicio de creacion. </t>
+  </si>
+  <si>
+    <t>Se debe contar con un servicio expuesto que permita almacenar los registros de cambio de etapa, el cambio de etapa puede lanzar el servicio de registro.</t>
+  </si>
+  <si>
+    <t>Agregar estado de la oportunidad y agregar etapa</t>
+  </si>
+  <si>
+    <t>Integracion con Directorio Activo</t>
+  </si>
+  <si>
+    <t>Este requerimiento entrara en la bolsa de horas destinada para reporteria</t>
+  </si>
+  <si>
+    <t>Capacitación en reportes (práctica y dinámica para mejor entendimiento de PCO)</t>
+  </si>
+  <si>
+    <t>Incluir mas paneles y diseño de reportes (uso de plataforma por parte de los usuarios, información para análisis de efectividades y tiempos promedio que toman las oportunidades de una etapa de venta a otra).  Recomendaciones con prácticas que tengan con otros clientes. Paneles para el seguimiento del estado de conexión de las oportunidades.</t>
+  </si>
+  <si>
+    <t>Mejorar exportación a Excel de reportes que permitan gestionar filtros fácilmente. Ajustar/mejorar los filtros de los reportes generados, ya que al generar un reporte y exportarlo a Excel, este combina celdas y no permite realizar filtros de forma directa, ya que debemos eliminar de forma manual las combinaciones de las celdas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vista de paneles para PMO (seguimiento a conexiones) Estado de conexión </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+  </si>
+  <si>
+    <t>Ajustar Funnel de ventas sin estado “conectado”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El panel de conectados no siempre carga. Mejorar la estabilidad y visualización de este panel. </t>
+  </si>
+  <si>
+    <t>Validar la fecha del cierre comercial y la fecha para el paso a proceso de conexión y la fecha efectiva de conexión para los paneles.  Tomar como ejemplo archivo de Excel que se adjunta.   Fundamental entender los tiempos de cada procesos, que se genere un tablero con esta visual</t>
+  </si>
+  <si>
+    <t>Bolsa De Horas</t>
+  </si>
+  <si>
+    <t>150h Reporteria</t>
+  </si>
+  <si>
+    <t>100h Mejoras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +436,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +529,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -449,11 +653,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -464,18 +677,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -497,6 +698,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,11 +824,230 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -630,16 +1089,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5041B78D-C9BD-4D52-873A-FE0E08F249B6}" name="Tabla1" displayName="Tabla1" ref="A1:G26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5041B78D-C9BD-4D52-873A-FE0E08F249B6}" name="Tabla1" displayName="Tabla1" ref="A1:G26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:G26" xr:uid="{5041B78D-C9BD-4D52-873A-FE0E08F249B6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FD8A5324-555D-4E13-9DA0-5BB9F14E6B07}" name="#" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{50B76070-A3A5-4D91-8100-B67ED3F7ACE3}" name="Requerimiento" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{1F6ECE3C-B979-447F-849B-F835B1DA081B}" name="Estimado" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{31E5403F-CDBB-4B1B-95DB-B5126FD1FA7F}" name="Observaciones" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2255AAAA-48BD-4A5E-8CC4-67A38B63B69A}" name="Dificultad" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F62542BE-9395-4546-B31C-9A35EA69F3C8}" name="Incertidumbre" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{411EE893-FA09-4593-9FA2-8F9482A1128B}" name="Detalle" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FD8A5324-555D-4E13-9DA0-5BB9F14E6B07}" name="#" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{50B76070-A3A5-4D91-8100-B67ED3F7ACE3}" name="Requerimiento" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{65F23172-CBE3-4BA9-997A-6F975C752EC4}" name="Alcance" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{31E5403F-CDBB-4B1B-95DB-B5126FD1FA7F}" name="Observaciones" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2255AAAA-48BD-4A5E-8CC4-67A38B63B69A}" name="Dificultad" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F62542BE-9395-4546-B31C-9A35EA69F3C8}" name="Incertidumbre" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{411EE893-FA09-4593-9FA2-8F9482A1128B}" name="Detalle" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08208E7A-C089-46C3-ABA4-238246BC0D50}" name="Tabla2" displayName="Tabla2" ref="A2:F11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A2:F11" xr:uid="{08208E7A-C089-46C3-ABA4-238246BC0D50}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3F6B01EB-FB45-4D43-9AF8-83EA6EDA1DD5}" name="Requerimiento" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D1F116A5-7599-42B4-8CA2-5DF0167ADE3B}" name="Alcance" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{170153B1-D57B-475F-AC36-3DB33A6C52BF}" name="Observaciones" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3E58AE86-E662-4C41-8677-4C2C7A470C24}" name="Dificultad" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CB061ABE-1B7F-4E69-A160-4A300C667BDE}" name="Incertidumbre" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9E080779-18EF-488B-AB4A-7C587F3F7B22}" name="Detalle" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -944,14 +1418,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05475B6A-3942-4C47-B1AD-6A633889A0AD}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="13" customWidth="1"/>
-    <col min="2" max="3" width="60" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="60" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
@@ -959,14 +1434,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>41</v>
+      <c r="A1" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -981,36 +1456,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1019,14 +1492,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -1035,15 +1508,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -1052,217 +1525,406 @@
         <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
       <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
       <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G26" s="3"/>
     </row>
   </sheetData>
@@ -1276,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C679BE2B-8597-4382-9A35-FA7FB5DA01AD}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="B4:M4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,370 +1950,766 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="32" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41" t="s">
+      <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17">
+        <v>4</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21">
+        <v>4</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23">
+        <v>1</v>
+      </c>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
+        <v>14</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19">
+        <v>1</v>
+      </c>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>16</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B15" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="15">
+      <c r="A19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6">
+        <v>4</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>4</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <v>12</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7">
+        <v>2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="24">
         <v>0</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18">
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27">
         <v>0</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21">
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30">
         <v>0</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24">
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="33">
         <v>0</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:D2"/>
@@ -1659,6 +2717,168 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF03671-9A83-4EFD-B70F-FC72C97F85C0}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+    </row>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>